--- a/excel/datasheet.xlsx
+++ b/excel/datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karin/Documents/1_Studium_HSLU/5_Semester/Web_extended/Web_extended/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA7DC00-6F2E-6849-9A80-97E484DF7900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D7C0CB-357E-D348-807A-731AFE4A9398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1340" windowWidth="30920" windowHeight="19660" xr2:uid="{84A588C8-0C04-6C49-B107-4867D89799C6}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="30920" windowHeight="19660" xr2:uid="{84A588C8-0C04-6C49-B107-4867D89799C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="466">
   <si>
     <t>url</t>
   </si>
@@ -1021,6 +1021,420 @@
   </si>
   <si>
     <t>url(./Img/2010_swatch.png)</t>
+  </si>
+  <si>
+    <t>2010_swisscom.png</t>
+  </si>
+  <si>
+    <t>2010_whitney.png</t>
+  </si>
+  <si>
+    <t>2010_yahoo.png</t>
+  </si>
+  <si>
+    <t>url(./Img/2010_yahoo.png)</t>
+  </si>
+  <si>
+    <t>url(./Img/2010_whitney.png)</t>
+  </si>
+  <si>
+    <t>url(./Img/2010_swisscom.png)</t>
+  </si>
+  <si>
+    <t>2011_Apple.png</t>
+  </si>
+  <si>
+    <t>url(./Img/2011_Apple.png)</t>
+  </si>
+  <si>
+    <t>2011_brizk.png</t>
+  </si>
+  <si>
+    <t>url(./Img/2011_brizk.png)</t>
+  </si>
+  <si>
+    <t>2011_mtv.png</t>
+  </si>
+  <si>
+    <t>url(./Img/2011_mtv.png</t>
+  </si>
+  <si>
+    <t>2011_post.png</t>
+  </si>
+  <si>
+    <t>2011_rally_agentur.png</t>
+  </si>
+  <si>
+    <t>2011_sbb.png</t>
+  </si>
+  <si>
+    <t>2011_St_martin.png</t>
+  </si>
+  <si>
+    <t>2011_zaha.png</t>
+  </si>
+  <si>
+    <t>2011-mtv.png</t>
+  </si>
+  <si>
+    <t>2012_adobe.png</t>
+  </si>
+  <si>
+    <t>2012_amazon.png</t>
+  </si>
+  <si>
+    <t>2012_Apple.png</t>
+  </si>
+  <si>
+    <t>2012_arte.png</t>
+  </si>
+  <si>
+    <t>2012_brizk.png</t>
+  </si>
+  <si>
+    <t>2012_guggenheim.png</t>
+  </si>
+  <si>
+    <t>2012_kunsthaus.png</t>
+  </si>
+  <si>
+    <t>2012_Moma.png</t>
+  </si>
+  <si>
+    <t>2012_nike.png</t>
+  </si>
+  <si>
+    <t>2012_st_martin.png</t>
+  </si>
+  <si>
+    <t>2012_swatch.png</t>
+  </si>
+  <si>
+    <t>2012_Swisscom.png</t>
+  </si>
+  <si>
+    <t>2012_zaha.png</t>
+  </si>
+  <si>
+    <t>2013_amazon.png</t>
+  </si>
+  <si>
+    <t>2013_annabelle.png</t>
+  </si>
+  <si>
+    <t>2013_Apple.png</t>
+  </si>
+  <si>
+    <t>2013_arte.png</t>
+  </si>
+  <si>
+    <t>2013_mc.png</t>
+  </si>
+  <si>
+    <t>2013_mtv.png</t>
+  </si>
+  <si>
+    <t>2013_nzz.png</t>
+  </si>
+  <si>
+    <t>2013_refikanadol.png</t>
+  </si>
+  <si>
+    <t>2013_sbb.png</t>
+  </si>
+  <si>
+    <t>2013_srf.png</t>
+  </si>
+  <si>
+    <t>2013_swisscom.png</t>
+  </si>
+  <si>
+    <t>2013_Whitney.png</t>
+  </si>
+  <si>
+    <t>2014_adobe.png</t>
+  </si>
+  <si>
+    <t>2014_amazon.png</t>
+  </si>
+  <si>
+    <t>2014_Apple.png</t>
+  </si>
+  <si>
+    <t>2014_balenciaga.png</t>
+  </si>
+  <si>
+    <t>2014_Moma.png</t>
+  </si>
+  <si>
+    <t>2014_nike.png</t>
+  </si>
+  <si>
+    <t>2014_olafur.png</t>
+  </si>
+  <si>
+    <t>2014_sbb.png</t>
+  </si>
+  <si>
+    <t>2014_srf.png</t>
+  </si>
+  <si>
+    <t>2014_swatch.png</t>
+  </si>
+  <si>
+    <t>2014_vitra.png</t>
+  </si>
+  <si>
+    <t>2014_yahoo.png</t>
+  </si>
+  <si>
+    <t>2014_zaha.png</t>
+  </si>
+  <si>
+    <t>2015_amazon.png</t>
+  </si>
+  <si>
+    <t>2015_annabelle.png</t>
+  </si>
+  <si>
+    <t>2015_Apple.png</t>
+  </si>
+  <si>
+    <t>2015_arte.png</t>
+  </si>
+  <si>
+    <t>2015_balenciaga.png</t>
+  </si>
+  <si>
+    <t>2015_Moma.png</t>
+  </si>
+  <si>
+    <t>2015_Mtv.png</t>
+  </si>
+  <si>
+    <t>2015_nike.png</t>
+  </si>
+  <si>
+    <t>2015_post.png</t>
+  </si>
+  <si>
+    <t>2015_srf.png</t>
+  </si>
+  <si>
+    <t>2015_swatch.png</t>
+  </si>
+  <si>
+    <t>2015_vogue.png</t>
+  </si>
+  <si>
+    <t>2016_amazon.png</t>
+  </si>
+  <si>
+    <t>2016_annabelle.png</t>
+  </si>
+  <si>
+    <t>2016_google.png</t>
+  </si>
+  <si>
+    <t>2016_guggenheim.png</t>
+  </si>
+  <si>
+    <t>2016_mtv.png</t>
+  </si>
+  <si>
+    <t>2016_nike.png</t>
+  </si>
+  <si>
+    <t>2016_nzz.png</t>
+  </si>
+  <si>
+    <t>2016_olafur.png</t>
+  </si>
+  <si>
+    <t>2016_srf.png</t>
+  </si>
+  <si>
+    <t>2016_swisscom.png</t>
+  </si>
+  <si>
+    <t>2016_Vitra.png</t>
+  </si>
+  <si>
+    <t>2016_yagoo.png</t>
+  </si>
+  <si>
+    <t>2017_Apple.png</t>
+  </si>
+  <si>
+    <t>2017_cola.png</t>
+  </si>
+  <si>
+    <t>2017_google.png</t>
+  </si>
+  <si>
+    <t>2017_Moma.png</t>
+  </si>
+  <si>
+    <t>2017_nike.png</t>
+  </si>
+  <si>
+    <t>2017_olafur.png</t>
+  </si>
+  <si>
+    <t>2017_post.png</t>
+  </si>
+  <si>
+    <t>2017_rally_agentur.png</t>
+  </si>
+  <si>
+    <t>2017_refikanadol.png</t>
+  </si>
+  <si>
+    <t>2017_sbb.png</t>
+  </si>
+  <si>
+    <t>2017_srf.png</t>
+  </si>
+  <si>
+    <t>2017_swatch.png</t>
+  </si>
+  <si>
+    <t>2017_vitra.png</t>
+  </si>
+  <si>
+    <t>2017_vogue.png</t>
+  </si>
+  <si>
+    <t>2018_amazon.png</t>
+  </si>
+  <si>
+    <t>2018_annabelle.png</t>
+  </si>
+  <si>
+    <t>2018_Moma.png</t>
+  </si>
+  <si>
+    <t>2018_Mtv.png</t>
+  </si>
+  <si>
+    <t>2018_nike.png</t>
+  </si>
+  <si>
+    <t>2018_nzz.png</t>
+  </si>
+  <si>
+    <t>2018_olafur.png</t>
+  </si>
+  <si>
+    <t>2018_srf.png</t>
+  </si>
+  <si>
+    <t>2018_swatch.png</t>
+  </si>
+  <si>
+    <t>2018_vitra.png</t>
+  </si>
+  <si>
+    <t>2018_whitney.png</t>
+  </si>
+  <si>
+    <t>2019_amazon.png</t>
+  </si>
+  <si>
+    <t>2019_annabelle.png</t>
+  </si>
+  <si>
+    <t>2019_Apple.png</t>
+  </si>
+  <si>
+    <t>2019_guggenheim.png</t>
+  </si>
+  <si>
+    <t>2019_kunsthaus.png</t>
+  </si>
+  <si>
+    <t>2019_Moma.png</t>
+  </si>
+  <si>
+    <t>2019_nike.png</t>
+  </si>
+  <si>
+    <t>2019_refikanadol.png</t>
+  </si>
+  <si>
+    <t>2019_srf.png</t>
+  </si>
+  <si>
+    <t>2019_st_martin.png</t>
+  </si>
+  <si>
+    <t>2019_swatch.png</t>
+  </si>
+  <si>
+    <t>2019_Vitra.png</t>
+  </si>
+  <si>
+    <t>2019_whitney.png</t>
+  </si>
+  <si>
+    <t>2019_Yale.png</t>
+  </si>
+  <si>
+    <t>2020_amazon.png</t>
+  </si>
+  <si>
+    <t>2020_Apple.png</t>
+  </si>
+  <si>
+    <t>2020_balenciaga.png</t>
+  </si>
+  <si>
+    <t>2020_guggenheim.png</t>
+  </si>
+  <si>
+    <t>2020_ibm.png</t>
+  </si>
+  <si>
+    <t>2020_interdiscount.png</t>
+  </si>
+  <si>
+    <t>2020_Kunsthaus.png</t>
+  </si>
+  <si>
+    <t>2020_Moma.png</t>
+  </si>
+  <si>
+    <t>2020_mtv.png</t>
+  </si>
+  <si>
+    <t>2020_nike.png</t>
+  </si>
+  <si>
+    <t>2020_Nzz.png</t>
+  </si>
+  <si>
+    <t>2020_olafur.png</t>
+  </si>
+  <si>
+    <t>2020_post.png</t>
+  </si>
+  <si>
+    <t>2020_rally_agentur.png</t>
+  </si>
+  <si>
+    <t>2020_St_martin.png</t>
+  </si>
+  <si>
+    <t>2020_swatch.png</t>
+  </si>
+  <si>
+    <t>2020_swisscom.png</t>
+  </si>
+  <si>
+    <t>2020_yahoo.png</t>
+  </si>
+  <si>
+    <t>2020_yale.png</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1088,6 +1502,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1402,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E99271A-38B7-254A-8FCD-9641F96137F2}">
-  <dimension ref="A1:O153"/>
+  <dimension ref="A1:O285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O1"/>
+      <selection activeCell="B278" sqref="B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8461,6 +8878,1086 @@
         <v>326</v>
       </c>
     </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C154" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C155" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C156" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C157" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C158" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C159" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C160" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C161" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C162" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C163" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C164" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C165" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C166" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C167" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C168" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C169" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C170" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C171" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C172" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C173" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C174" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C175" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C176" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C177" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C178" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C179" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C180" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C182" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C183" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C184" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C185" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C186" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C187" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C188" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C189" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C190" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C191" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C192" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C193" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C194" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C195" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C196" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C197" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C198" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C199" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C200" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C201" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C202" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C203" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C204" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C205" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C206" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C207" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C208" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C209" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C210" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C211" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C212" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C213" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C214" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C215" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C216" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C217" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C218" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C219" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C220" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C221" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C222" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C223" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C224" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C225" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C226" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C227" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C228" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C229" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C230" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C231" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C232" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C233" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C234" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C235" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C236" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C237" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C238" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C239" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C240" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C241" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C242" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C243" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C244" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C245" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C246" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C247" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C248" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C249" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C250" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C251" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C252" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C253" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C254" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C255" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C256" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C257" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C258" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C259" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C260" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C261" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C262" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C263" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C264" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C265" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C266" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C267" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C268" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C269" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C270" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C271" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C272" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C273" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C274" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C275" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C276" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C277" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C278" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C279" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C280" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C281" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C282" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C283" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C284" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C285" t="s">
+        <v>465</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A20" xr:uid="{5F704953-1BC1-C243-8B6A-C70555E96E8D}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
